--- a/biology/Zoologie/Eutropis_multifasciata/Eutropis_multifasciata.xlsx
+++ b/biology/Zoologie/Eutropis_multifasciata/Eutropis_multifasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eutropis multifasciata ou Scinque doré[1] est une espèce de sauriens de la famille des Scincidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eutropis multifasciata ou Scinque doré est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Inde dans l’État d'Assam ;
 en Birmanie ;
 en Thaïlande ;
@@ -557,7 +571,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le scinque doré a une taille qui peut atteindre 35 cm de long.
 Ce lézard vit dans les clairières ensoleillées des forêts tropicales. Il mange des insectes.
@@ -590,9 +606,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 septembre 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 septembre 2012) :
 Eutropis multifasciata multifasciata (Kuhl, 1820)
 Eutropis multifasciata tjendikianensis (Mertens, 1956)</t>
         </is>
@@ -622,7 +640,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kuhl, 1820 : Beiträge zur Zoologie und vergleichenden Anatomie, p. 1-152 (texte intégral).
 Mertens, 1956 : Eidechsen (Reptilia) vom Karimundjawa-Archipel. Treubia, vol. 23, no 2, p. 253-257.</t>
